--- a/feedback_data.xlsx
+++ b/feedback_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MANU KUMAR R\OneDrive\Documents\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE681AD9-7B33-48D5-8B53-590E38AE58DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F601CDE-1047-4F3C-9713-847E87536A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -137,15 +137,6 @@
   </si>
   <si>
     <t>i am feeling very very angry</t>
-  </si>
-  <si>
-    <t>Chandan S M</t>
-  </si>
-  <si>
-    <t>2025-05-19 21:12:20</t>
-  </si>
-  <si>
-    <t>I am sad about Reliance's for food products</t>
   </si>
 </sst>
 </file>
@@ -508,13 +499,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -805,23 +800,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
